--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/937e0d3af198974b/Documents/CS-555/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/937e0d3af198974b/Documents/CS-555/Project/gedcom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCBE61BE-AEDD-4702-A0F0-607E25401B06}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A11F57BB-AC3A-4333-860B-4A4324A35163}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="180">
   <si>
     <t>Initials</t>
   </si>
@@ -57,36 +57,6 @@
   </si>
   <si>
     <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>hm</t>
-  </si>
-  <si>
-    <t>Harlan</t>
-  </si>
-  <si>
-    <t>Mills</t>
-  </si>
-  <si>
-    <t>hmills@stevens.edu</t>
-  </si>
-  <si>
-    <t>harlanmills</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Turing</t>
-  </si>
-  <si>
-    <t>aturing@stevens.edu</t>
-  </si>
-  <si>
-    <t>enigmacracker</t>
   </si>
   <si>
     <t>GitHub Repository:</t>
@@ -113,16 +83,10 @@
     <t>Birth before death</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>US05</t>
   </si>
   <si>
     <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>Coding</t>
   </si>
   <si>
     <t>US08</t>
@@ -569,9 +533,6 @@
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
   <si>
-    <t>cs555tmxx2022Fall</t>
-  </si>
-  <si>
     <t>py</t>
   </si>
   <si>
@@ -581,9 +542,6 @@
     <t>Yalamala</t>
   </si>
   <si>
-    <t>pyalamala@gmail.com</t>
-  </si>
-  <si>
     <t>pyalamala</t>
   </si>
   <si>
@@ -591,6 +549,39 @@
   </si>
   <si>
     <t>cg</t>
+  </si>
+  <si>
+    <t>Yashvardhan</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>Cavin</t>
+  </si>
+  <si>
+    <t>Gada</t>
+  </si>
+  <si>
+    <t>pyalamal@stevens.edu</t>
+  </si>
+  <si>
+    <t>ysharma4@stevens.edu</t>
+  </si>
+  <si>
+    <t>cgada@stevens.edu</t>
+  </si>
+  <si>
+    <t>cavingada</t>
+  </si>
+  <si>
+    <t>ysharma72</t>
+  </si>
+  <si>
+    <t>cs555tm032023Fall</t>
   </si>
 </sst>
 </file>
@@ -747,13 +738,19 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>45194</c:v>
+                  <c:v>42527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45201</c:v>
+                  <c:v>42540</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45208</c:v>
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -766,6 +763,18 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,10 +958,7 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41904</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41917</c:v>
+                  <c:v>45194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,10 +970,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,6 +1745,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1942,15 +1949,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="26" width="10.75" customWidth="1"/>
   </cols>
@@ -1996,53 +2003,53 @@
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>170</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>175</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>173</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2050,10 +2057,10 @@
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3050,6 +3057,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{D407D197-136B-46D8-9C31-8B54F78EBFF4}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{5EDC74B2-2A23-48C0-9ECE-DED8C4464651}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{586A1026-E36F-4C96-B7E9-1C018483EAEA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -3061,7 +3070,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3076,19 +3085,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -3117,278 +3126,283 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4376,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4393,19 +4407,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -4415,13 +4429,13 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -4431,7 +4445,7 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -4457,25 +4471,25 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -4499,10 +4513,10 @@
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15" s="8">
-        <v>45194</v>
+        <v>42527</v>
       </c>
       <c r="C15" s="9">
         <v>24</v>
@@ -4515,71 +4529,102 @@
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8">
-        <v>45201</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="5" t="e">
-        <f t="shared" ref="G16:G19" si="0">(E16-E15)/F16*60</f>
-        <v>#DIV/0!</v>
+        <v>42540</v>
+      </c>
+      <c r="C16" s="9">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D19" si="0">C15-C16</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="9">
+        <v>250</v>
+      </c>
+      <c r="F16" s="9">
+        <v>120</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ref="G16:G19" si="1">(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8">
-        <v>45208</v>
-      </c>
-      <c r="C17" s="9"/>
+        <v>42554</v>
+      </c>
+      <c r="C17" s="9">
+        <v>12</v>
+      </c>
       <c r="D17" s="2">
-        <f t="shared" ref="D16:D19" si="1">C16-C17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="5" t="e">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6</v>
+      </c>
+      <c r="E17" s="9">
+        <v>480</v>
+      </c>
+      <c r="F17" s="10">
+        <v>135</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="1"/>
+        <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="8">
+        <v>42568</v>
+      </c>
+      <c r="C18" s="9">
+        <v>6</v>
+      </c>
       <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="9">
+        <v>740</v>
+      </c>
+      <c r="F18" s="10">
+        <v>160</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B19" s="8">
+        <v>42582</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
       <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1100</v>
+      </c>
+      <c r="F19" s="10">
+        <v>145</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>148.9655172413793</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8517,12 +8562,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="5" max="5" width="6.875" customWidth="1"/>
@@ -8532,22 +8579,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -8572,10 +8619,10 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>41904</v>
+        <v>45194</v>
       </c>
       <c r="B2" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -8583,25 +8630,14 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>41917</v>
-      </c>
-      <c r="B3" s="2">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
-        <f>B2-B3</f>
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>250</v>
-      </c>
-      <c r="E3" s="2">
-        <v>120</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="e">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12604,7 +12640,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12623,109 +12659,141 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>30</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="4">
-        <v>41906</v>
-      </c>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>30</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>167</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -12767,7 +12835,7 @@
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I14" s="4"/>
     </row>
@@ -12777,7 +12845,7 @@
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -12795,7 +12863,7 @@
     </row>
     <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I20" s="4"/>
     </row>
@@ -16738,31 +16806,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17783,31 +17851,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18828,31 +18896,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19878,13 +19946,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -19912,464 +19980,464 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/937e0d3af198974b/Documents/CS-555/Project/gedcom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A11F57BB-AC3A-4333-860B-4A4324A35163}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E039502-0F69-4181-9DFD-826B135AF1B3}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,10 +578,10 @@
     <t>cavingada</t>
   </si>
   <si>
-    <t>ysharma72</t>
+    <t>cs555tm032023Fall</t>
   </si>
   <si>
-    <t>cs555tm032023Fall</t>
+    <t>ysharma7</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2049,7 +2049,7 @@
         <v>176</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/937e0d3af198974b/Documents/CS-555/Project/gedcom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E039502-0F69-4181-9DFD-826B135AF1B3}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B541A8FA-AEBE-40E3-B45B-D7FDDD68F222}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
     <t>cs555tm032023Fall</t>
   </si>
   <si>
-    <t>ysharma7</t>
+    <t>ysharma72</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1950,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B541A8FA-AEBE-40E3-B45B-D7FDDD68F222}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8562,8 +8562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/937e0d3af198974b/Documents/CS-555/Project/gedcom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B541A8FA-AEBE-40E3-B45B-D7FDDD68F222}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{E5D6C071-B4AF-4354-B3D0-F1B91E2B1EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E4393C9-1596-4D0C-8BC5-5094F24A8C92}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
     <t>cs555tm032023Fall</t>
   </si>
   <si>
-    <t>ysharma72</t>
+    <t>ysharma</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -8562,7 +8562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
